--- a/biology/Botanique/Arundineae/Arundineae.xlsx
+++ b/biology/Botanique/Arundineae/Arundineae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Arundineae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, dont le genre-type est Arundo[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Arundineae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, dont le genre-type est Arundo.
 Ne pas confondre avec les tribus des Arundinarieae (sous-famille des Bambusoideae) et des Arundinelleae (sous-famille des Panicoideae).
 </t>
         </is>
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des genres
-Selon R. Soreng et al. (2015)[3] :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon R. Soreng et al. (2015) :
 Amphipogon (syn. – Diplopogon),
 Arundo,
-Monachather.
-Synonymes
-Selon Tropicos                                           (26 août 2016)[1] et R. Soreng et al[3] :
-Amphipogoneae L. Watson &amp; T.D. Macfarl. [2002] ;
-Arundininae Miq. [1857] (sous-tribu).</t>
+Monachather.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arundineae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arundineae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 août 2016) et R. Soreng et al :
+Amphipogoneae L. Watson &amp; T.D. Macfarl.  ;
+Arundininae Miq.  (sous-tribu).</t>
         </is>
       </c>
     </row>
